--- a/Htmls/Htmls.xlsx
+++ b/Htmls/Htmls.xlsx
@@ -1,54 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\argus\Argus\Amazon\AmazonJP\Htmls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18468" windowHeight="9516"/>
+    <workbookView windowWidth="18468" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="Htmls" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
     <t>https://www.amazon.co.jp/dp/B01MU5ESLZ?psc=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -57,20 +42,355 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,36 +398,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -397,32 +994,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/dp/B01MU5ESLZ?psc=1"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Htmls/Htmls.xlsx
+++ b/Htmls/Htmls.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>https://www.amazon.co.jp/dp/B01MU5ESLZ?psc=1</t>
+    <t>https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1</t>
   </si>
 </sst>
 </file>
@@ -25,16 +25,106 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,16 +137,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,134 +203,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,37 +213,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,145 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,21 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,18 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,165 +474,189 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -999,7 +1005,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1017,7 +1023,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/dp/B01MU5ESLZ?psc=1"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Htmls/Htmls.xlsx
+++ b/Htmls/Htmls.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/%E7%AB%B9%E6%9D%91%E9%9B%BB%E6%A9%9F%E8%A3%BD%E4%BD%9C%E6%89%80-%E5%9C%9F%E5%A3%8C%E9%85%B8%E6%B9%BF%E5%BA%A6%E8%A8%88-DM-15/dp/B002IK35OS/ref=pd_cp_60_3?_encoding=UTF8&amp;psc=1&amp;refRID=18WEM4EY000T718QGNH4%20DM15%E5%9E%8B%E5%8F%B7%E6%B5%8B%E5%9C%9F%E4%BB%AA</t>
   </si>
 </sst>
 </file>
@@ -25,9 +28,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -46,88 +49,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -136,30 +57,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,35 +95,117 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,19 +216,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,163 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,69 +407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +434,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -507,156 +510,157 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="24.1" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -1021,9 +1025,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1" tooltip="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.amazon.co.jp/%E7%AB%B9%E6%9D%91%E9%9B%BB%E6%A9%9F%E8%A3%BD%E4%BD%9C%E6%89%80-%E5%9C%9F%E5%A3%8C%E9%85%B8%E6%B9%BF%E5%BA%A6%E8%A8%88-DM-15/dp/B002IK35OS/ref=pd_cp_60_3?_encoding=UTF8&amp;psc=1&amp;refRID=18WEM4EY000T718QGNH4%20DM15%E5%9E%8B%E5%8F%B7%E6%B5%8B%E5%9C%9F%E4%BB%AA"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Htmls/Htmls.xlsx
+++ b/Htmls/Htmls.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E7%AB%B9%E6%9D%91%E9%9B%BB%E6%A9%9F%E8%A3%BD%E4%BD%9C%E6%89%80-%E5%9C%9F%E5%A3%8C%E9%85%B8%E6%B9%BF%E5%BA%A6%E8%A8%88-DM-15/dp/B002IK35OS/ref=pd_cp_60_3?_encoding=UTF8&amp;psc=1&amp;refRID=18WEM4EY000T718QGNH4%20DM15%E5%9E%8B%E5%8F%B7%E6%B5%8B%E5%9C%9F%E4%BB%AA</t>
+    <t>https://www.amazon.co.jp/%E7%84%A1%E9%A7%84%E5%90%A0%E3%81%88%E9%98%B2%E6%AD%A2-%E5%90%A0%E3%81%88%E7%A6%81%E6%AD%A2-%E3%83%A0%E3%83%80%E5%90%A0%E3%81%88-KB-MUDABOE-%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF/dp/B00SIJ1L80/ref=sr_1_2?ie=UTF8&amp;qid=1494157272&amp;sr=8-2&amp;keywords=%E7%8B%97+%E6%AD%A2%E5%90%A0%20%E8%B6%85%E5%A3%B0%E6%B3%A2%E6%AD%A2%E5%90%A0%E5%99%A8</t>
   </si>
 </sst>
 </file>
@@ -27,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -49,6 +46,132 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -58,47 +181,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,95 +199,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +213,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,169 +321,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +404,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,36 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +470,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -510,157 +507,156 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="24.1" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -1025,15 +1021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;ie=UTF8&amp;qid=1493384651&amp;sr=1-1" tooltip="https://www.amazon.co.jp/Excelvan-EC%E3%83%A1%E3%83%BC%E3%82%BF%E3%83%BC-%E6%B8%AC%E5%AE%9A%E7%AF%84%E5%9B%B20-9999ppm-0-9990%CE%BCS-%E6%B0%B4%E8%80%95%E6%A0%BD%E5%9F%B9%E3%81%AA%E3%81%A9%E5%AF%BE%E5%BF%9C/dp/B01DEOSW08/ref=lp_3152548051_1_1?s=industrial&amp;"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.amazon.co.jp/%E7%AB%B9%E6%9D%91%E9%9B%BB%E6%A9%9F%E8%A3%BD%E4%BD%9C%E6%89%80-%E5%9C%9F%E5%A3%8C%E9%85%B8%E6%B9%BF%E5%BA%A6%E8%A8%88-DM-15/dp/B002IK35OS/ref=pd_cp_60_3?_encoding=UTF8&amp;psc=1&amp;refRID=18WEM4EY000T718QGNH4%20DM15%E5%9E%8B%E5%8F%B7%E6%B5%8B%E5%9C%9F%E4%BB%AA"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.amazon.co.jp/%E7%84%A1%E9%A7%84%E5%90%A0%E3%81%88%E9%98%B2%E6%AD%A2-%E5%90%A0%E3%81%88%E7%A6%81%E6%AD%A2-%E3%83%A0%E3%83%80%E5%90%A0%E3%81%88-KB-MUDABOE-%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF/dp/B00SIJ1L80/ref=sr_1_2?ie=UTF8&amp;qid=1494157272&amp;sr=8-2&amp;keywords=%E7%8B%97+%E6%AD%A2%E5%90%A0%20%E8%B6%85%E5%A3%B0%E6%B3%A2%E6%AD%A2%E5%90%A0%E5%99%A8"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Htmls/Htmls.xlsx
+++ b/Htmls/Htmls.xlsx
@@ -14,129 +14,2913 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
-  <si>
-    <t>https://www.amazon.co.jp/NextBlow-%E3%83%97%E3%83%AB%E3%83%BC%E3%83%A0%E3%83%86%E3%83%83%E3%82%AF-Ploomtech-%E3%82%AB%E3%83%BC%E3%83%88%E3%83%AA%E3%83%83%E3%82%B8-%EF%BC%95%E5%80%8BSET/dp/B06Y5SMCPH/ref=pd_sim_121_5?_encoding=UTF8&amp;psc=1&amp;refRID=M01G11X0TB61YF828HQC</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B6%E3%83%90%E3%82%B9-%E3%83%9B%E3%82%A8%E3%82%A4%E3%83%97%E3%83%AD%E3%83%86%E3%82%A4%E3%83%B3100-%E3%82%B3%E3%82%B3%E3%82%A2%E5%91%B3-50%E9%A3%9F%E5%88%86-1-050g/dp/B00IEA5210/ref=zg_bs_hpc_1?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A2%E3%82%A4%E3%82%B3%E3%82%B9-IQOS-4930941500887-iQOS-%E3%83%9B%E3%83%AF%E3%82%A4%E3%83%88/dp/B01FVK17AU/ref=zg_bs_hpc_2?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%87-%E3%82%AA%E3%82%A6-%E3%83%95%E3%82%A7%E3%82%A4%E3%82%B9%E3%83%87%E3%82%AA%E3%82%A6%E3%82%A9%E3%83%83%E3%82%B7%E3%83%A5%E3%83%9F%E3%83%8B-20g/dp/B071HXV759/ref=zg_bs_hpc_5?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%81%E3%81%A1%E3%82%83%E3%81%86%E3%81%99-1000-1%E7%AE%B112%E3%82%B3%E5%85%A5-3%E3%83%91%E3%83%83%E3%82%AF-SKYN-%E3%81%8A%E8%A9%A6%E3%81%97%E3%82%B5%E3%83%B3%E3%83%97%E3%83%AB%E4%BB%98/dp/B000NZ9M60/ref=zg_bs_hpc_6?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%A4%A7%E5%A1%9A%E8%A3%BD%E8%96%AC-%E3%83%8D%E3%82%A4%E3%83%81%E3%83%A3%E3%83%BC%E3%83%A1%E3%82%A4%E3%83%89-%E3%82%B9%E3%83%BC%E3%83%91%E3%83%BC%E3%83%9E%E3%83%AB%E3%83%81%E3%83%93%E3%82%BF%E3%83%9F%E3%83%B3-%E3%83%9F%E3%83%8D%E3%83%A9%E3%83%AB-120%E7%B2%92/dp/B00516RULK/ref=zg_bs_hpc_8?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B6%E3%83%90%E3%82%B9-%E3%82%A6%E3%82%A7%E3%82%A4%E3%83%88%E3%83%80%E3%82%A6%E3%83%B3-%E3%83%A8%E3%83%BC%E3%82%B0%E3%83%AB%E3%83%88%E9%A2%A8%E5%91%B3-50%E9%A3%9F%E5%88%86-1-050g/dp/B00IEA57F6/ref=zg_bs_hpc_10?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%8A%E3%83%81%E3%83%A5%E3%83%AA%E3%82%A8-2527-%E3%82%B9%E3%82%AD%E3%83%B3%E3%82%B3%E3%83%B3%E3%83%87%E3%82%B7%E3%83%A7%E3%83%8A%E3%83%BC-500ml/dp/B000FQP2YS/ref=zg_bs_hpc_11?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A2%E3%82%A4%E3%82%B3%E3%82%B9-IQOS-4930941500887-iQOS-%E3%83%8D%E3%82%A4%E3%83%93%E3%83%BC/dp/B0166U34DC/ref=zg_bs_hpc_12?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%A1%E3%83%A9%E3%83%8ECC-%E8%96%AC%E7%94%A8%E3%81%97%E3%81%BF-%E9%9B%86%E4%B8%AD%E5%AF%BE%E7%AD%96-%E7%BE%8E%E5%AE%B9%E6%B6%B2-20mL-%E5%8C%BB%E8%96%AC%E9%83%A8%E5%A4%96%E5%93%81/dp/B00ITAP8P0/ref=zg_bs_hpc_13?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%AF%9B%E7%A9%B4%E6%92%AB%E5%AD%90-%E3%81%8A%E7%B1%B3%E3%81%AE%E3%83%9E%E3%82%B9%E3%82%AF-10%E6%9E%9A%E5%85%A5/dp/B018FM03CO/ref=zg_bs_hpc_14?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%81%A9%E3%81%93%E3%81%A7%E3%82%82%E3%83%99%E3%83%BC%E3%83%97-%E8%99%AB%E3%82%88%E3%81%91%E5%99%A8-%E6%9C%AA%E6%9D%A5150%E6%97%A5%E3%82%BB%E3%83%83%E3%83%88-%E3%83%91%E3%83%BC%E3%83%AB%E3%83%9B%E3%83%AF%E3%82%A4%E3%83%88-%E4%B8%8D%E5%BF%AB%E5%AE%B3%E8%99%AB%E7%94%A8/dp/B003L9T12A/ref=zg_bs_hpc_15?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%98%8E%E6%B2%BB-%E3%82%B6%E3%83%90%E3%82%B9-%E3%83%97%E3%83%AD%E3%83%86%E3%82%A4%E3%83%B3%E3%82%B7%E3%82%A7%E3%82%A4%E3%82%AB%E3%83%BC-500ml-1%E5%80%8B/dp/B01GFRJGY2/ref=zg_bs_hpc_16?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%A4%A7%E5%AE%B9%E9%87%8F-%E3%82%A2%E3%82%BF%E3%83%83%E3%82%AFNeo-%E6%8A%97%E8%8F%8CEX-W%E3%83%91%E3%83%AF%E3%83%BC-%E6%B4%97%E6%BF%AF%E6%B4%97%E5%89%A4-1300g/dp/B072L3S8GV/ref=zg_bs_hpc_17?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/DHC-%E3%83%87%E3%82%A3%E3%83%BC-%E3%82%A8%E3%82%A4%E3%83%81-%E3%82%B7%E3%83%BC-%E4%BA%9C%E9%89%9B-60%E6%97%A5%E5%88%86-60%E7%B2%92/dp/B006TQKWWA/ref=zg_bs_hpc_18?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%81%A5%E6%A0%84%E8%A3%BD%E8%96%AC-%E7%84%A1%E6%B0%B4%E3%82%A8%E3%82%BF%E3%83%8E%E3%83%BC%E3%83%ABP-500ml/dp/B000TKDKA8/ref=zg_bs_hpc_20?_encoding=UTF8&amp;psc=1&amp;refRID=R5EBPC8KB71X0NXZC1ZF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF%E3%82%AD%E3%83%A3%E3%83%83%E3%83%97-%E3%82%A2%E3%83%BC%E3%82%B9%E8%A3%BD%E8%96%AC-12%E5%80%8B%E5%85%A5%E3%82%8A/dp/B000FQMM28/ref=zg_bs_hpc_21?_encoding=UTF8&amp;psc=1&amp;refRID=9DYWBQ9YDPWWVPH5Y1NR</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/APAGARD-%E3%82%A2%E3%83%91%E3%82%AC%E3%83%BC%E3%83%89-%E3%83%97%E3%83%AC%E3%83%9F%E3%82%AA-%E5%8C%BB%E8%96%AC%E9%83%A8%E5%A4%96%E5%93%81-100g/dp/B00NE7JU34/ref=zg_bs_hpc_22?_encoding=UTF8&amp;psc=1&amp;refRID=9DYWBQ9YDPWWVPH5Y1NR</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%92%8C%E5%85%89%E5%A0%82-%E8%99%AB%E3%81%8D%E3%81%A1%E3%82%83%E3%83%80%E3%83%A1-%E3%82%B7%E3%83%BC%E3%83%AB%E3%82%BF%E3%82%A4%E3%83%97-60%E6%9E%9A/dp/B003L9T0YY/ref=zg_bs_hpc_23?_encoding=UTF8&amp;psc=1&amp;refRID=9DYWBQ9YDPWWVPH5Y1NR</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/DHC-%E3%83%87%E3%82%A3%E3%83%BC-%E3%82%A8%E3%82%A4%E3%83%81-%E3%82%B7%E3%83%BC-522092-%E3%83%9E%E3%83%AB%E3%83%81%E3%83%93%E3%82%BF%E3%83%9F%E3%83%B3-60%E6%97%A5%E5%88%86/dp/B008S6QBGA/ref=zg_bs_hpc_24?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%81%A9%E3%81%93%E3%81%A7%E3%82%82%E3%83%99%E3%83%BC%E3%83%97-%E8%99%AB%E3%82%88%E3%81%91%E5%99%A8-%E6%9C%AA%E6%9D%A5150%E6%97%A5%E5%8F%96%E6%9B%BF%E3%81%88%E7%94%A8-1%E5%80%8B%E5%85%A5/dp/B003L9T116/ref=zg_bs_hpc_25?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%94%E3%83%BC%E3%82%B9%E3%83%97%E3%83%AD%E3%83%87%E3%82%B6%E3%82%A4%E3%83%B3%E3%82%B7%E3%83%AA%E3%83%BC%E3%82%BA-789397084267-%E3%82%A2%E3%83%AA%E3%83%9F%E3%83%8E-%E3%83%94%E3%83%BC%E3%82%B9-%E3%83%95%E3%83%AA%E3%83%BC%E3%82%BA%E3%82%AD%E3%83%BC%E3%83%97%E3%83%AF%E3%83%83%E3%82%AF%E3%82%B9/dp/B001NRCG06/ref=zg_bs_hpc_26?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A2%E3%82%B5%E3%83%92%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E9%A3%9F%E5%93%81-%E3%83%87%E3%82%A3%E3%82%A2%E3%83%8A%E3%83%81%E3%83%A5%E3%83%A9-%E3%83%93%E3%82%BF%E3%83%9F%E3%83%B3C-60%E6%97%A5%E5%88%86-120%E7%B2%92/dp/B0020R6TEW/ref=zg_bs_hpc_28?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%81%A9%E3%81%93%E3%81%A7%E3%82%82%E3%83%99%E3%83%BC%E3%83%97-%E6%90%BA%E5%B8%AF%E8%99%AB%E3%82%88%E3%81%91-%E2%84%961%E6%9C%AA%E6%9D%A5%E3%82%BB%E3%83%83%E3%83%88-%E3%83%A1%E3%82%BF%E3%83%AA%E3%83%83%E3%82%AF%E3%82%B0%E3%83%AC%E3%83%BC-%E6%9C%AC%E4%BD%93/dp/B004QZADRK/ref=zg_bs_hpc_30?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A6%E3%82%A8%E3%83%AB%E3%83%86%E3%83%83%E3%82%AF-%E3%82%B3%E3%83%B3%E3%82%AF%E3%83%BC%E3%83%AB-%E3%82%B8%E3%82%A7%E3%83%AB%E3%82%B3%E3%83%BC%E3%83%88F-90g/dp/B00871HYMQ/ref=zg_bs_hpc_32?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/Barrier-Repair-%E3%83%90%E3%83%AA%E3%82%A2%E3%83%AA%E3%83%9A%E3%82%A2-%E3%82%B7%E3%83%BC%E3%83%88%E3%83%9E%E3%82%B9%E3%82%AF-%E3%81%B7%E3%82%8B%E3%81%B7%E3%82%8B%E8%B6%85%E3%81%97%E3%81%A3%E3%81%A8%E3%82%8A%E3%82%BF%E3%82%A4%E3%83%97/dp/B01ARKFG9M/ref=zg_bs_hpc_37?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B5%E3%82%AC%E3%83%9F%E3%82%AA%E3%83%AA%E3%82%B8%E3%83%8A%E3%83%AB-JNPL0034-0-01-5%E5%80%8B%E5%85%A5/dp/B00IJ68C5C/ref=zg_bs_hpc_39?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E4%B9%85%E5%85%89%E8%A3%BD%E8%96%AC-%E3%83%96%E3%83%86%E3%83%8A%E3%83%AD%E3%83%83%E3%82%AF-%E8%B6%B3%E6%B4%97%E3%81%84%E3%82%BD%E3%83%BC%E3%83%97-80%EF%BD%87-%E5%8C%BB%E8%96%AC%E9%83%A8%E5%A4%96%E5%93%81/dp/B004G8P7XM/ref=zg_bs_hpc_40?_encoding=UTF8&amp;psc=1&amp;refRID=1ZGQ2T0ZVGZ52QW941PZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%94%E3%82%B8%E3%83%A7%E3%83%B3-%E3%82%B5%E3%83%97%E3%83%AA%E3%83%A1%E3%83%B3%E3%83%88-%E8%91%89%E9%85%B8%E3%82%AB%E3%83%AB%E3%82%B7%E3%82%A6%E3%83%A0%E3%83%97%E3%83%A9%E3%82%B9-60%E7%B2%92%E5%85%A5/dp/B000WTB8QO/ref=zg_bs_hpc_42?_encoding=UTF8&amp;psc=1&amp;refRID=GM11RSPM8FFMPP1ZR78P</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%81%A5%E6%A0%84%E8%A3%BD%E8%96%AC-%E3%83%8F%E3%83%83%E3%82%AB%E6%B2%B9P-20ml/dp/B000V2FG56/ref=zg_bs_hpc_47?_encoding=UTF8&amp;psc=1&amp;refRID=KM2YE3RSYF5BCQEZVEEP</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%AD%E3%83%AC%E3%82%A4%E3%82%AD%E3%83%AC%E3%82%A4-%E6%B3%A1%E3%83%8F%E3%83%B3%E3%83%89%E3%82%BD%E3%83%BC%E3%83%97-%E3%82%B7%E3%83%88%E3%83%A9%E3%82%B9%E3%83%95%E3%83%AB%E3%83%BC%E3%83%86%E3%82%A3%E3%81%AE%E9%A6%99%E3%82%8A-800ml-%E5%8C%BB%E8%96%AC%E9%83%A8%E5%A4%96%E5%93%81/dp/B01K1T2YS0/ref=zg_bs_hpc_48?_encoding=UTF8&amp;psc=1&amp;refRID=KM2YE3RSYF5BCQEZVEEP</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E8%B3%87%E7%94%9F%E5%A0%82-%E3%82%A2%E3%83%8D%E3%83%83%E3%82%B5-%E3%83%91%E3%83%BC%E3%83%95%E3%82%A7%E3%82%AF%E3%83%88UV-%E3%82%A2%E3%82%AF%E3%82%A2%E3%83%96%E3%83%BC%E3%82%B9%E3%82%BF%E3%83%BC-60%EF%BD%8D%EF%BD%8C/dp/B01BOOPSYI/ref=zg_bs_hpc_61?_encoding=UTF8&amp;psc=1&amp;refRID=6FJ990JWC4FRNQ8JSXET</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/Dr-Scholl-%E3%83%89%E3%82%AF%E3%82%BF%E3%83%BC%E3%82%B7%E3%83%A7%E3%83%BC%E3%83%AB-%E6%B6%88%E8%87%AD-%E6%8A%97%E8%8F%8C-%E9%9D%B4%E3%82%B9%E3%83%97%E3%83%AC%E3%83%BC-%E7%84%A1%E9%A6%99%E6%96%99/dp/B0026R4XY4/ref=zg_bs_hpc_64?_encoding=UTF8&amp;psc=1&amp;refRID=6STG6XEJ8EZVJ88DEFER</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%8A%E3%83%81%E3%83%A5%E3%83%AA%E3%82%A8-%E3%82%B9%E3%82%AD%E3%83%B3%E3%82%B3%E3%83%B3%E3%83%87%E3%82%A3%E3%82%B7%E3%83%A7%E3%83%8B%E3%83%B3%E3%82%B0%E3%82%B8%E3%82%A7%E3%83%AB-180g/dp/B01BSJ5ZSI/ref=zg_bs_hpc_65?_encoding=UTF8&amp;psc=1&amp;refRID=6STG6XEJ8EZVJ88DEFER</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/IQOS-CLEANING-STICKS-PACK-30/dp/B01FJ64WR6/ref=zg_bs_hpc_67?_encoding=UTF8&amp;psc=1&amp;refRID=6STG6XEJ8EZVJ88DEFER</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E9%9B%BB%E5%AD%90%E3%82%BF%E3%83%90%E3%82%B3-%E3%83%AA%E3%82%AD%E3%83%83%E3%83%89-%E3%82%B0%E3%83%AA%E3%83%BC%E3%83%B3%E3%82%A2%E3%83%83%E3%83%97%E3%83%AB%E3%83%A1%E3%83%B3%E3%82%BD%E3%83%BC%E3%83%AB-%E5%9B%BD%E7%94%A3%E3%83%96%E3%83%A9%E3%83%B3%E3%83%89BI-SO-Liquid/dp/B00N7QE082/ref=zg_bs_hpc_76?_encoding=UTF8&amp;psc=1&amp;refRID=6STG6XEJ8EZVJ88DEFER</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%92%8C%E5%85%89%E5%A0%82-%E3%82%B7%E3%83%83%E3%82%AB%E3%83%AD%E3%83%BC%E3%83%AB%E3%83%8A%E3%83%81%E3%83%A5%E3%83%A9%E3%83%AB-120g/dp/B0019W3JVA/ref=zg_bs_hpc_79?_encoding=UTF8&amp;psc=1&amp;refRID=6STG6XEJ8EZVJ88DEFER</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%AB%E3%83%83%E3%82%AF-%E9%98%B2%E3%82%AB%E3%83%93%E3%81%8F%E3%82%93%E7%85%99%E5%89%A4-%E3%81%8A%E3%81%B5%E3%82%8D%E3%81%AE%E9%98%B2%E3%82%AB%E3%83%93%E3%81%8F%E3%82%93%E7%85%99%E5%89%A4-%E3%81%9B%E3%81%A3%E3%81%91%E3%82%93%E3%81%AE%E9%A6%99%E3%82%8A-5g-3%E5%80%8B%E3%83%91%E3%83%83%E3%82%AF/dp/B00NSMW19U/ref=zg_bs_hpc_82?_encoding=UTF8&amp;psc=1&amp;refRID=AWFB75B7Z91DYQWRXCQH</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E8%82%8C%E7%BE%8E%E7%B2%BE-885648626191-%E8%B6%85%E6%B5%B8%E9%80%8F3D%E3%83%9E%E3%82%B9%E3%82%AF-%E3%82%A8%E3%82%A4%E3%82%B8%E3%83%B3%E3%82%B0%E4%BF%9D%E6%B9%BF-4%E6%9E%9A/dp/B004NZRTCU/ref=zg_bs_hpc_87?_encoding=UTF8&amp;psc=1&amp;refRID=D7CP3QZARJKQ56YTQB9Y</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%AD%E3%82%BC%E3%83%83%E3%83%88-29572-%E6%B4%97%E9%A1%94%E3%83%91%E3%82%B9%E3%82%BF-%E6%B5%B7%E6%B3%A5%E3%82%B9%E3%83%A0%E3%83%BC%E3%82%B9-120g/dp/B002R59OTE/ref=zg_bs_hpc_88?_encoding=UTF8&amp;psc=1&amp;refRID=D7CP3QZARJKQ56YTQB9Y</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%92%E3%83%AD%E3%82%A4%E3%83%B3%E3%83%A1%E3%82%A4%E3%82%AFSP-%E3%82%B9%E3%83%A0%E3%83%BC%E3%82%B9%E3%83%AA%E3%82%AD%E3%83%83%E3%83%89%E3%82%A2%E3%82%A4%E3%83%A9%E3%82%A4%E3%83%8A%E3%83%BC%E3%82%B9%E3%83%BC%E3%83%91%E3%83%BC%E3%82%AD%E3%83%BC%E3%83%9701-%E6%BC%86%E9%BB%92%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF-0-4ml-%E3%81%8A%E6%B9%AF%E8%90%BD%E3%81%A1%E3%82%BF%E3%82%A4%E3%83%97/dp/B00RWME3MU/ref=zg_bsms_hpc_16?_encoding=UTF8&amp;psc=1&amp;refRID=E3DFE2T32ZBRN8ZZCKJ1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969">
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQP2YS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B071HXV759</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018FM03CO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ITAP8P0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ARKFG9M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004G8P7XM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ6I8C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1T2YS0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002R59OTE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BSJ5ZSI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00855VQH8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008F4NV72</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004NZRTCU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00OZ9BN7G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N0JKYZE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000RLWF7S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000GIW74S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000TCEXOS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005F2EVMQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MJ1H09W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BTN5XEO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001JF0MQW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ST81QTY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BM1UUBY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001R23TU8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQVK1M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SAS17I8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP358E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0016K977U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ITAP8M8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01A6JCPJI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BLBT6UQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MWK6X34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0036ZBRVC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007SULMUW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ6774</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MTDFFQ5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006W2QSAQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ECQCVK0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BBUFCLE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0015XN6W0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001JF0MRG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQUTAU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008FTWP0G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1T2RMS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EN7LR3U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00275FJKW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01HPB6OJ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0044DFTHI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007HHE2KS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B011QBLQ0Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CW6746I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00OZ9BO16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SAS1D6E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013WJA8UW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP3PLG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ARKFFXY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XKBG467</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000CCJIWC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BN2C60G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP3FFM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CW679SG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01AN2M4VM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQS68C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SM997GE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01DFJZ1IS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003VM7LPG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MF8GZXQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001ABLKK2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQP4RI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01HPB6O5Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQQRB0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CE27536</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0074WS61C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KCL78CU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B011QBM8EM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N0RK7WC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQPH3O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01H2TBRO4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01NAX614L</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SM995AC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ6QOI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00T2DR92I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FYFYTE4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0036ZBR1C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000GWBNDU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002WDIPR8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000W7KLKA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CE0YSLA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BM1USNO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ARKFG88</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B019IDQ57G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007IE3XCI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00567821Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IUBPXD0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012YTLO4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SM99IQI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012X6GYI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0052IG7G6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01E6HRAO6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LZNQGIT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQU90A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004P5OH3C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CHYM7I0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N0C0D0C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007150O2Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00C1A9F7Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IHPQKBS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B019SWM34G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005JQSHP0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B012MF1H7U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MVG1BZO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00C1CACNU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BIVHB8Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SW83720</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JFPOIGC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E3KO52W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06WP2MWGB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000EZU948</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012SEIZ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001V7WJ0U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002U5ATYK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BHRKB3U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00OXOCFSY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007BYXTQK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002L15Y52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BJG8M6S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XOTDYU2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00T2SIY6I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001ET65OG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001R23U20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQPCNE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQO8MU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQUTBE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JFPOC4U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00INRNM3E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EY1JKF2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IPG5J3E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQN8LM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E3KO4XW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009FUBOME</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00J8DVTE6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004P5OHAK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000HK1ON0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JFPOIM6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0030D1TOU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KI9DQHC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQN8AI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP3LVU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00O9S2L0G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004P5OH96</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E3KO518</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005EJ86JY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005EVCHKQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0727PR3PZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012SGQDY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HWQMQ84</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00WXGWJJE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EY1JKK2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01B1DKLCQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQV4FY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007BYZZX0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000SJU65C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00O9S7X2W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2F3KY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00F050FGO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP43GM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNNIK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001CKPWNM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0016K94PK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008F5TFRG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ51YE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00TDFX8R0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0001TSIB8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BBU53E6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00O9RXC46</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SM99IMC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B019SWM64S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BOR28XO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YQU9TVQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M9C1LJ8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MWKFUSI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E3KNUFA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00120VWJ0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B977VSC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001H54CS8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01B84FP9M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MXLWL0H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000CCU1AU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQMMX2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0013Z8WK6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002L15WMM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00VP90K78</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06X1H1MS6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MWKFUS8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001C86CW4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06W52WLJX</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQT0UK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQU8YW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NE7JU34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00871HYMQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004WMNUI6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002R5EVHY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ICDD1TY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091FM076</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MV3M9S1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0094BKAVA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003B2CCPU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00871HYGM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B015MDHZMA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091FIBZG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007RKEQII</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008WGHTEY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SM6FE3C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003ZHUFDC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EAE2JYC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ5LKI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N2B7IP9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JS86C24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N2B9HYG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B015MDHZA2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0094BKAI8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009A4UB1K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0092ZY6Y0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BWM2KJI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001893ED2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ICDC8MA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ALFAHK6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009KFBPFK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NS9GOXC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00X3E44D4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B016KI5GCM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01AJ5WZ8A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003M6AGD0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003B2GFDK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BGBRUHC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NE7JPNE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0085I5KHW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00F9WYYD8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00A2E80LK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012X35KQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N4WX1U3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CFBXN8I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004JZPANE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004W10X8C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005PKTEHK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NHJH5KE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNGAU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQVR2E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01HB4QQDC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQM2U0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007CCSDE4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MYH6805</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTU5U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0016KETFA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N19XCDD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JRRGETC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BSK1QBI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004WZ3IBW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004OR2FO4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00UYIJU1I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP3JYE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N2BCHHV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01J5FYI58</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0092ZY7OY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000RYUJEQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0132GBLEC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B019W1E89Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013ABYDM6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B010A8J5KW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00J2NS0QC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B010A8J5KM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001GH4EB2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013DPTZZY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009G9VYLA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004MKMOO4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001HLBXUC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00GTHYMAC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005WFUQSY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N9WB13Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00APTB104</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000BNCBB2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008UNIPZ6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006W2QNLK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNGU0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N0ZH68G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00J7C2190</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FXOBY76</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009FUBO3I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014A4QDEI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000SKFL1A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003AL01IW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00005BJ92</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001GGWDKW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012WX9JO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M06JEFJ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NE7534E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNGOQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00F9WZ9UK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001NRCG06</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004WBF8EG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002NYLT6U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0076JBOBC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01D2PJIVG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HPPGUFC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0096JYZMA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01I1B8ALA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EUQP3HA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HZGOMU6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000VPF1US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CHYM8L6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KOTG7AE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HZGOMX8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00JFSPV16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQOZNW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KOT949U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004Q1WV06</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0093UKZSU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013SPYNGA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001EZ5A3W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002UNHWPQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001ET6528</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CP7VAOU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BAN6NZW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002YLTHDE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004LVD4UC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YM1MEJI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00812NK0G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ID7670S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000W6KNPE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00JZK4HHS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00J7KDNPI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0036ZBHZS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00101PM7E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B016LQGH1M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B071DD81XQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004Q1WU7K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00LKWKXO0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012WRCBA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001MBV4UQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQOORE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000JJYGES</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005J31LO2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018VSBIBC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001DCE32U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091POARE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091PASUW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013FNI4UQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01A6OE53M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRVWY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CP7UWGW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0096JKXY4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B017TSFTME</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQN8P8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00H41K5F8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LALFWOQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002SW2OQQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000SJZE4A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KX0BSJO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0002ERLME</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LZ06HUZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001EZ89US</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018C9YY7U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001EYZI2Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001AQYZPE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JS87098</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01I4VU7IQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00Z16VF3E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01DXC95HU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0036NX33E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0027GT15U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B012MF1H5W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01DXC965G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YA6J8TE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00PPSJWZ6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00PIFSPUO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002UNAJR4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005JQSH4G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N7CX2Z3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0157NB1G6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009UQOW3G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006W10WTK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0054F9VGU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQOZO6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP3Z8O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091PE16O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRVY2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0057TBWGK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2ACH8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BEQUXC8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005J24CMQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002TEXCGO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EHD9LOM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00RWME3MU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00INJ7TWW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005MVFRXM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B0MSCNE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004WM2654</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00AXTF5GM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00TESOQCC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009S2NDFU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ECP3MMW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SIH3B9Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008RIAAT8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SIGOKEK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP35DE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01E540ALA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012VQTO2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000VREQUW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002G0UV9C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00RWMF4WS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N1O7N20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01AFQFP4Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0KYHQ3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005F750JY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01ER03VO0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNEWU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IP6GI0M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00INJ7ULW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FKPSK5C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06WP5D9QZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N17MM8R</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001U2NQBW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000TUDVNO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N6A3IXP</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQSBOG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BWGO6DC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002G0WOVU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009SJK5PY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YXJCNFE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B0MSCKC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CHYMG8G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001BKM30S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00V45B1IA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EC7N2KW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00LGHOI8G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LWODT67</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002IT6GTU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007152JOW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EAFA04W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SW8370C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01C3LYCUC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008RIABU6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000RYU78O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B0MSCMU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0073ZW102</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LF8H35U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K7MW1IY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B012MF1OP0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B010SQLX6K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006OUXJJE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B012EVKPVQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01J9XZZ9E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01J0Y2SK6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0076FEA9E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N1O7MW6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0026R8XWM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0171ENF54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001GS8OM6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CDGM6DS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XKDB7Z8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IJT841G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQQI3M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CSGHF6Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNJ16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SW8372K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014K7MQHS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01C6LE0Q0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CCDOV5M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01C7ZYWHC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MVNQFHG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005F2ETI2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004R0JKL4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0044DFUUO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EAFB1KE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00LZILTCO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B015GNF5TQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2FBAQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00GSN28VM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MTDX3MS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06Y65FM24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00V45AVAO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00842FN26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MFEGTND</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002EQASLE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000ET3NKQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LW52YSZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00COZ6T36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BXWG3GE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ARGMRFI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00C573X5K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00U5QBLWK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01172XJ4S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06WD4LXPH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B016B0XEY6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004OR2FNK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B6YPD9M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007JQ9RTI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00GOI107Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B010V2IDVY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7B3S3W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01EXY372G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007QR5FPU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004220C6E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012VV83Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0010LIKX2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00U5QBIZK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008MUCEWC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009KFASKS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001CF0N1S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01FHNJ67M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2FDI6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018RTNIFY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001PMK6A6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000W7EZJS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N78FJ3G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000UL64H2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01EWKFDAA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003CYM78O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06X9Y9V57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000Y1QZHW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00Q63MQN4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00PVC365S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B019DE2DIU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002G0YT0O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQS9AC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008MH8PWS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BYQME7G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01AR8Y3J8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00PVEYVZA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LW74L6N</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002VTJVRQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001DYJ544</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00AS43WV2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002ORKELC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007Y2IQ8U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007B6Y2PA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01DKJUFXO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000Y1QZJA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N0UX0Y2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M21JKWE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XSX7DGV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01CJ67HRG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018RTMHUG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008KWB3FG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01NCN6RN0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQPOXC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001AX81PM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E717AVA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JA00ZWS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018DS3200</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XTM88WQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQPOX2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007Y1IJX8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0012X3T3Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01G3160NU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00T2MAOCQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002E1AW8I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00JO88OFM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007JQ9RYS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0196ET6F0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004NMVMKI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XKM8XNS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0034XHONG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MLX5N3S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M31F4CW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003HK1QEO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008IZAV6C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B072DVKSXD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N6ZEL7C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MUAIO1A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00L26AVI2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0716DXTGJ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0025X3W14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001CEVNW2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002XLMJF8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008MUBRXY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JA00ZR8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MRD8XS5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N5XS0YB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MSX4MK7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01HRKU1JK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQV8AA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2FG56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000GT0UH8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LYGWYHL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000PY54RU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001TKO358</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRDXQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002BGHVT4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BSTSQDO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0009OAI40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XHFRYW4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00021AKJI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0013L25N0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1HHGKS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0WO4Y1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XHS8M2W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0020MMB26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E0V9I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002S9ZM2C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQR25K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000RO7EA8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001TM6J4O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LXTGMUY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002H5K66E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000EGWL16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01J2ZQ9CG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001HLBVHW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005DOXFWS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000NMORYU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000Q0VBOS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000XE7PV0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0327ZV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000EGUHAI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003V8W4LG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004U7YR94</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0Q193I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003LR0W1G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0050MFMKQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0013L25NA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ5VYO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M1GOYPA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0018Q31CO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0QH2CC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0042RE0DU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0061HCG62</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YIPEWN4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E0T0Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00UUNAJ3K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001E74ZJU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000E9FRA0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1DBVOY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000CR1WUI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0QHQVQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009SUAAZI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQNZYW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003U3R250</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005DUQYK2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E10QG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQR28W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003LOGAWY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000RN6XTW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1DBVRQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002XITZJ4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0Q99L7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E0WD8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01KX34CRK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00SAZY3J6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00021D4UU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0090WRHOQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000XE71J6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002SW3IRU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1DBVR6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009SU2P3S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000C2104G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1HFL3C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003489AE2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ5W0C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M0Q99L9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00G96Q09Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N95C891</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1HHK2W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00JPWB7IS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004FT4AB2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQ5W5C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQR2CS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01B1DKEQE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M032FAE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01K1HF29U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000C1VTIY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000NML7MA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E0ZEO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M8FMFQV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LZRU807</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003Y39WJU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0019W3IMK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00D10ILV6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00B7E122I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000277N88</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00VHRILSI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000X1XPBW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4MG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4NU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4MQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4N0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQOMWQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XJEG0HQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00076R3KM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XC5MS8S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JS86SNW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004KSRJMA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GPNMNYG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B016U7U8XA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B018S17NNO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MS3MLB7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N5R2GZB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005N3P7MK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005CMGTJ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01E4TKQ2Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JS86WHO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06ZZPG68Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001QYNI94</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4NA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0000C92GQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N6IERJ3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B072FV8NQW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B071FB7KP6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00JEU356S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008ADJJD8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002AVVRNQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003TB2HJ4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005N3P838</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00UGSXCLU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00483TNK8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XP6M4NM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06Y1RB6Y3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N1IE8TS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005ROU5U4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XT1B6TS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00K9ZGGBS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00KQFA8W4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01489PCII</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01JS86WH4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B011KREUFW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002TEZGI6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0146F7BBU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01F1UQPP2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009WKCGR4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N27XCMA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005N3P7QG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQND9O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003Z9KUBM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQLM24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01G6UMFVE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002HLJP06</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003X603UU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NARWOM2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B015FG8IDO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002SW2PJC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0017LJ318</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQP2ZW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B017GRRDKE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06Y5G5PYW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N8J4NK8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP4A10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B011BOZE1I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005N3P7XE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00YXJNOD4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014EY9MJ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01NCAAZZP</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06Y3SG3TS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B015H3C4OO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00A34P7AQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00OI0T8J2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LX5ZS7R</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01HZ5EWBU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000VSG1PO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01B84EFW0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003XOS4NK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0089TJOBA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0176B2EMM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2F6BU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003E8AEMO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00524QRF6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00V45AV36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MT0MI3P</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FR6UYEO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M69P9OI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0015PMCPK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01N12Y2FC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005FLZ7J8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01NAV8DH2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MS9GBAQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0053DY8LQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003SUMBZ6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00LHH0N0W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003SUMBZG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRYI0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XKRUXWK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002P91WCE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRYHQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HQXWPC0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MVK5P0M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0053DZHX4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014IZRC4Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0067VHSIS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HQXWP2U</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005FLZ7OI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005J542MI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005OGPTBA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004TDZQXU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XKRUW76</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B010AOC1GG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MYA934Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003SUMBYW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002A5VE6W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0069E912Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014IZRYXI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XKRUXAC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014IZRWXA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0069E5BFK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0069E01AK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQRYIA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00LHH0O5Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002BA559S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013CD8IO6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GO63A8C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003SUMBZQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004QWSP78</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004QWMV6O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BES3USQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B06XRJTCF7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0069E48XQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002A5MJTI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004711VEM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001V82S0A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01AALGRHI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002D1CYU8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GO63AQY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00C1VQPVE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00XKRUX20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000CSNWEQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01FTVK73Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002TV1GOM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009KI64XK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00TO2YAFQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005Z1PJGY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0047177LS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01MUFW3L5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FJWNFJ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004BHZJHC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00UN2U5CS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00HFZF96S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000WQ614G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00471574M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EI6KYSA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003EV6XQC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002P941GI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005MM1HJ4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008MUIXKE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GO63A14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01M1OFNYX</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GO639XS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00AHUGAMK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FJWNFW4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002P97XVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00G63EP3S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IKAHXPC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00TO5PS0Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00QPTPO1A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01C2RPXMI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00QRHPRXU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01LXR0MIK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002P8YWVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005GDW4AA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00EI6L45W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0091J16OA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003SUMC00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B001GZIHQM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008P78VFG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002BA559I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E8H389G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00UR7I3HI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01544DHDS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004TDZQNK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01E4U14B0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0011U2SEY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B002D1B206</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA5210</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00516RULK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA57F6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01GFRJGY2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006TQKWWA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008S6QBGA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0020R6TEW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA4OV4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000W9F9O6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00516RUX8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004PEHCZS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BS3OXOM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000WTB8QO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0039PV1ZQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00D86V4IA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007BJAVKM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTQPO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000XYPV2A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000QVYJUK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004WMB5J2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CE3P4PM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FP35RK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00871DQKA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01B74CAB4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00MVKCLN6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00I4NW6WK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B013DK18AY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0039PV20K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008S6QCZK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00E95CD4S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTQSG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01BDD68NK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0090V7WPG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000P6XUFG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01COZY3VK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0095CBJK4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006FD0QPU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00L8L443Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000GZYBOA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0017X1VH0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003N5POE6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA57U6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA525G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00J7GY4NC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006TQKTAA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA4OSW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000IBURUE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006TQKY82</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA4UK4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B01C6LEH8G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004Y2XRV4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BP4T3YE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0062FTM38</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00NM4JZRU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00ITIPPF0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000NAO1IE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B008S6QKUW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004PEHD1G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005QUZ9K0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0020R8Z2Q</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009OB2FVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000BTA4HO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00BAN5XQ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00L2T5I5A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTQT0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007BJAZK8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2FF5W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B014P9C5BI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTQV8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003HGJNMU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B003MP93J4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004PEHD2A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2F86I</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00TD5SZHI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00CE3P5WE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0093FWYNE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00117ZRXQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00462PUEY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00I95KPFS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B006TQKWGQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B012VFRTY6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B0015LRAHY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000BA6Z0S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00WWE1KVU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00I3YN75A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B009T2SHCI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000V2FF66</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA4U18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00L22PNDO</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B007BJAU8A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00N8N88XW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00USOVJDA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000TKDK7G</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B004KW7QNI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00871DQMI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B005S9IYZ6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQR87C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00FFTT9BW</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B00IEA57NI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/dp/B000FQTQPY</t>
   </si>
 </sst>
 </file>
@@ -144,10 +2928,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -166,23 +2950,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,29 +2972,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,23 +2992,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +3016,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -271,9 +3077,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -287,30 +3093,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +3109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +3139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,43 +3151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +3175,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,73 +3283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +3300,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,37 +3366,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +3386,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +3406,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,7 +3418,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,125 +3427,125 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,15 +3902,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
+      <selection activeCell="C995" sqref="C995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -1337,6 +4121,4801 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
